--- a/src/2023mcm_cn/T2/第二问ans.xlsx
+++ b/src/2023mcm_cn/T2/第二问ans.xlsx
@@ -578,25 +578,25 @@
         <v>415.6923456970489</v>
       </c>
       <c r="C5" t="n">
-        <v>451.3236276047783</v>
+        <v>380.0610637893195</v>
       </c>
       <c r="D5" t="n">
-        <v>486.9549095125078</v>
+        <v>344.4297818815901</v>
       </c>
       <c r="E5" t="n">
-        <v>522.5861914202371</v>
+        <v>308.7984999738607</v>
       </c>
       <c r="F5" t="n">
-        <v>558.2174733279667</v>
+        <v>273.1672180661313</v>
       </c>
       <c r="G5" t="n">
-        <v>593.848755235696</v>
+        <v>237.5359361584019</v>
       </c>
       <c r="H5" t="n">
-        <v>629.4800371434253</v>
+        <v>201.9046542506725</v>
       </c>
       <c r="I5" t="n">
-        <v>665.1113190511549</v>
+        <v>166.2733723429431</v>
       </c>
     </row>
     <row r="6">
@@ -609,25 +609,25 @@
         <v>415.6921938165304</v>
       </c>
       <c r="C6" t="n">
-        <v>466.0910549593899</v>
+        <v>365.2933326736709</v>
       </c>
       <c r="D6" t="n">
-        <v>516.4899161022494</v>
+        <v>314.8944715308114</v>
       </c>
       <c r="E6" t="n">
-        <v>566.8887772451088</v>
+        <v>264.4956103879519</v>
       </c>
       <c r="F6" t="n">
-        <v>617.2876383879685</v>
+        <v>214.0967492450924</v>
       </c>
       <c r="G6" t="n">
-        <v>667.686499530828</v>
+        <v>163.6978881022328</v>
       </c>
       <c r="H6" t="n">
-        <v>718.0853606736873</v>
+        <v>113.2990269593734</v>
       </c>
       <c r="I6" t="n">
-        <v>768.484221816547</v>
+        <v>62.90016581651381</v>
       </c>
     </row>
     <row r="7">
@@ -640,25 +640,25 @@
         <v>415.6923456970489</v>
       </c>
       <c r="C7" t="n">
-        <v>451.3236276047783</v>
+        <v>380.0610637893195</v>
       </c>
       <c r="D7" t="n">
-        <v>486.9549095125078</v>
+        <v>344.4297818815901</v>
       </c>
       <c r="E7" t="n">
-        <v>522.5861914202371</v>
+        <v>308.7984999738607</v>
       </c>
       <c r="F7" t="n">
-        <v>558.2174733279667</v>
+        <v>273.1672180661313</v>
       </c>
       <c r="G7" t="n">
-        <v>593.848755235696</v>
+        <v>237.5359361584019</v>
       </c>
       <c r="H7" t="n">
-        <v>629.4800371434254</v>
+        <v>201.9046542506725</v>
       </c>
       <c r="I7" t="n">
-        <v>665.1113190511549</v>
+        <v>166.273372342943</v>
       </c>
     </row>
     <row r="8">
